--- a/SPOC_List.xlsx
+++ b/SPOC_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBF68EC-9466-4744-8606-31F2A7201560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2E98B9-AEFE-4647-AB89-B79DC870DECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC50E064-D3E1-4722-A212-170004C84C2C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="83">
   <si>
     <t>Sl No</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Mahendra Shrama</t>
+  </si>
+  <si>
+    <t>Subhajit Dey</t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -318,9 +321,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,15 +639,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9FC473-EE0B-4B84-814A-0FB9608809A4}">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection sqref="A1:F154"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
@@ -3730,6 +3734,86 @@
         <v>70</v>
       </c>
     </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2">
+        <v>45713</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2">
+        <v>45716</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2">
+        <v>45717</v>
+      </c>
+      <c r="C157" t="s">
+        <v>23</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2">
+        <v>45717</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SPOC_List.xlsx
+++ b/SPOC_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC969234-48E3-458B-A142-542AAF05609E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EB54A2-FADB-4FC9-9C49-A69F7E1BC2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC50E064-D3E1-4722-A212-170004C84C2C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Sl No</t>
   </si>
@@ -90,22 +90,13 @@
     <t>Sayani Chakraborty</t>
   </si>
   <si>
-    <t>Veronica Nartiang</t>
-  </si>
-  <si>
     <t>Anupam Kumar</t>
   </si>
   <si>
     <t>Wasbir Ahmed</t>
   </si>
   <si>
-    <t>Test_Rm (FOR TEST M&amp;E)</t>
-  </si>
-  <si>
-    <t>TEST SPOC  (FOR TEST M&amp;E)</t>
-  </si>
-  <si>
-    <t>Pritam Basu</t>
+    <t>AMITAVA MAITY</t>
   </si>
 </sst>
 </file>
@@ -458,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9FC473-EE0B-4B84-814A-0FB9608809A4}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,19 +489,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45716</v>
+        <v>45717</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -518,10 +509,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45717</v>
+        <v>45718</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -530,7 +521,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -538,19 +529,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45717</v>
+        <v>45718</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -558,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>45718</v>
+        <v>45779</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -570,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -578,16 +569,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>45718</v>
+        <v>45810</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -598,10 +589,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>45779</v>
+        <v>45722</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -613,50 +604,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45810</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45720</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F8" xr:uid="{CA9FC473-EE0B-4B84-814A-0FB9608809A4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F8">
-      <sortCondition ref="B1:B8"/>
+  <autoFilter ref="A1:F6" xr:uid="{CA9FC473-EE0B-4B84-814A-0FB9608809A4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F6">
+      <sortCondition ref="B1:B6"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPOC_List.xlsx
+++ b/SPOC_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EB54A2-FADB-4FC9-9C49-A69F7E1BC2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2228917-B4CC-4AFA-AB14-9638DFB9546D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC50E064-D3E1-4722-A212-170004C84C2C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Sl No</t>
   </si>
@@ -57,9 +57,6 @@
     <t>booked_by</t>
   </si>
   <si>
-    <t>10:00 AM - 11:00 AM</t>
-  </si>
-  <si>
     <t>Krishna Sadhan Adhikari</t>
   </si>
   <si>
@@ -69,31 +66,13 @@
     <t>Anusua Bhattacharya</t>
   </si>
   <si>
-    <t>11:00 AM - 12:00 PM</t>
-  </si>
-  <si>
     <t>Pritha Sen</t>
   </si>
   <si>
     <t>Sanjeev Kumar</t>
   </si>
   <si>
-    <t>2:00 PM - 3:00 PM</t>
-  </si>
-  <si>
     <t>Pramod Singh</t>
-  </si>
-  <si>
-    <t>Vivek Kumar</t>
-  </si>
-  <si>
-    <t>Sayani Chakraborty</t>
-  </si>
-  <si>
-    <t>Anupam Kumar</t>
-  </si>
-  <si>
-    <t>Wasbir Ahmed</t>
   </si>
   <si>
     <t>AMITAVA MAITY</t>
@@ -449,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9FC473-EE0B-4B84-814A-0FB9608809A4}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,16 +471,16 @@
         <v>45717</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -509,105 +488,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45718</v>
+        <v>45722</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45718</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45779</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45810</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45722</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F6" xr:uid="{CA9FC473-EE0B-4B84-814A-0FB9608809A4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F6">
-      <sortCondition ref="B1:B6"/>
+  <autoFilter ref="A1:F2" xr:uid="{CA9FC473-EE0B-4B84-814A-0FB9608809A4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F2">
+      <sortCondition ref="B1:B2"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPOC_List.xlsx
+++ b/SPOC_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2228917-B4CC-4AFA-AB14-9638DFB9546D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62306667-96F2-43D3-BAFD-906DF3DC591C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC50E064-D3E1-4722-A212-170004C84C2C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Sl No</t>
   </si>
@@ -76,19 +76,31 @@
   </si>
   <si>
     <t>AMITAVA MAITY</t>
+  </si>
+  <si>
+    <t>2:00 PM - 3:00 PM</t>
+  </si>
+  <si>
+    <t>Veronica Nartiang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,13 +119,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9FC473-EE0B-4B84-814A-0FB9608809A4}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,12 +493,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45717</v>
+        <v>45719</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -483,23 +513,43 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
+        <v>45717</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>45722</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/SPOC_List.xlsx
+++ b/SPOC_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62306667-96F2-43D3-BAFD-906DF3DC591C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79C6F45-1D7E-4172-845A-0146986AAB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC50E064-D3E1-4722-A212-170004C84C2C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="50">
   <si>
     <t>Sl No</t>
   </si>
@@ -57,50 +57,149 @@
     <t>booked_by</t>
   </si>
   <si>
-    <t>Krishna Sadhan Adhikari</t>
-  </si>
-  <si>
-    <t>3:00 PM - 4:00 PM</t>
-  </si>
-  <si>
     <t>Anusua Bhattacharya</t>
   </si>
   <si>
-    <t>Pritha Sen</t>
-  </si>
-  <si>
-    <t>Sanjeev Kumar</t>
-  </si>
-  <si>
-    <t>Pramod Singh</t>
-  </si>
-  <si>
-    <t>AMITAVA MAITY</t>
-  </si>
-  <si>
-    <t>2:00 PM - 3:00 PM</t>
-  </si>
-  <si>
-    <t>Veronica Nartiang</t>
+    <t>AF0426860</t>
+  </si>
+  <si>
+    <t>BISWAPRATAP TRIPATHI</t>
+  </si>
+  <si>
+    <t>ODBHA</t>
+  </si>
+  <si>
+    <t>JYOTI RANJAN MOHANTY</t>
+  </si>
+  <si>
+    <t>PLACEMENT</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>AF0427583</t>
+  </si>
+  <si>
+    <t>JIBAN KUMAR MANNA</t>
+  </si>
+  <si>
+    <t>AF0427748</t>
+  </si>
+  <si>
+    <t>NIMESH NAYAK</t>
+  </si>
+  <si>
+    <t>AF0427798</t>
+  </si>
+  <si>
+    <t>SONALI SAHOO</t>
+  </si>
+  <si>
+    <t>AF0434516</t>
+  </si>
+  <si>
+    <t>SUHANI JAISWAL</t>
+  </si>
+  <si>
+    <t>AF0440729</t>
+  </si>
+  <si>
+    <t>VIVEKANANDA BARIK</t>
+  </si>
+  <si>
+    <t>AF0407176</t>
+  </si>
+  <si>
+    <t>AKSHAYA KUMAR GOCHHAYAT</t>
+  </si>
+  <si>
+    <t>AF0345240</t>
+  </si>
+  <si>
+    <t>PADMINI AGRAWAL</t>
+  </si>
+  <si>
+    <t>AF0426792</t>
+  </si>
+  <si>
+    <t>MAHAMMAD FIROZ</t>
+  </si>
+  <si>
+    <t>AF0426795</t>
+  </si>
+  <si>
+    <t>MITHUN PRADHAN</t>
+  </si>
+  <si>
+    <t>AF0446880</t>
+  </si>
+  <si>
+    <t>PRASHANJET PRADHAN</t>
+  </si>
+  <si>
+    <t>AF0440186</t>
+  </si>
+  <si>
+    <t>MOHAMAD AZHAR MALA</t>
+  </si>
+  <si>
+    <t>ODGAN</t>
+  </si>
+  <si>
+    <t>AF0442575</t>
+  </si>
+  <si>
+    <t>Bushra Tahseen Ayaz Ahmad</t>
+  </si>
+  <si>
+    <t>cmis_id</t>
+  </si>
+  <si>
+    <t>student_name</t>
+  </si>
+  <si>
+    <t>cmis_ph_no</t>
+  </si>
+  <si>
+    <t>center_name</t>
+  </si>
+  <si>
+    <t>uploader_name</t>
+  </si>
+  <si>
+    <t>verification_type</t>
+  </si>
+  <si>
+    <t>mode_of_verification</t>
+  </si>
+  <si>
+    <t>11:00 AM - 12:00 PM</t>
+  </si>
+  <si>
+    <t>Dibyendu Das</t>
+  </si>
+  <si>
+    <t>Jyoti Ranjan Mohanty</t>
+  </si>
+  <si>
+    <t>Privious Remarks</t>
+  </si>
+  <si>
+    <t>Not_working_at_all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -119,31 +218,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,22 +539,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9FC473-EE0B-4B84-814A-0FB9608809A4}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,73 +582,605 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45719</v>
+        <v>45756</v>
       </c>
       <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I2">
+        <v>6372675503</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45717</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>45756</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>8249824732</v>
+      </c>
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45722</v>
+        <v>45756</v>
       </c>
       <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>8455921958</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>7849052619</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>8260455183</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <v>7978454606</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B8" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>8249037129</v>
+      </c>
+      <c r="J8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <v>9348841560</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>8917490068</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>7381297963</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12">
+        <v>6372759972</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>9682524020</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14">
+        <v>8483019452</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2" xr:uid="{CA9FC473-EE0B-4B84-814A-0FB9608809A4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F2">
-      <sortCondition ref="B1:B2"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:N14" xr:uid="{CA9FC473-EE0B-4B84-814A-0FB9608809A4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SPOC_List.xlsx
+++ b/SPOC_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F72688-4603-4546-9D44-B47D4729AB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC76FCE4-E245-431C-B755-C3EF98393745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC50E064-D3E1-4722-A212-170004C84C2C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="238">
   <si>
     <t>date</t>
   </si>
@@ -243,9 +243,6 @@
     <t>PUJA CHOUDHURY</t>
   </si>
   <si>
-    <t>12:00 PM - 1:00 PM</t>
-  </si>
-  <si>
     <t>No Data Available For Verification</t>
   </si>
   <si>
@@ -324,27 +321,9 @@
     <t>AF0455689</t>
   </si>
   <si>
-    <t>Mainak Banerjee</t>
-  </si>
-  <si>
-    <t>AF0414918</t>
-  </si>
-  <si>
-    <t>ARITRA GORAI</t>
-  </si>
-  <si>
-    <t>WBACD</t>
-  </si>
-  <si>
     <t>G-meet</t>
   </si>
   <si>
-    <t>AF0415508</t>
-  </si>
-  <si>
-    <t>SARNENDU GHOSH</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -417,7 +396,361 @@
     <t>calibehr</t>
   </si>
   <si>
-    <t>TCS</t>
+    <t>3:00 PM - 4:00 PM</t>
+  </si>
+  <si>
+    <t>Sital Mishra</t>
+  </si>
+  <si>
+    <t>sritama.ghosh@anudip.org</t>
+  </si>
+  <si>
+    <t>AF0473196</t>
+  </si>
+  <si>
+    <t>Pankaj Ghosh</t>
+  </si>
+  <si>
+    <t>WBNAI</t>
+  </si>
+  <si>
+    <t>Sritama Ghosh</t>
+  </si>
+  <si>
+    <t>AF0469373</t>
+  </si>
+  <si>
+    <t>Akash Mondal</t>
+  </si>
+  <si>
+    <t>AF0405203</t>
+  </si>
+  <si>
+    <t>Deblina Nandy</t>
+  </si>
+  <si>
+    <t>AF0461632</t>
+  </si>
+  <si>
+    <t>Pragati Shaw</t>
+  </si>
+  <si>
+    <t>AF0405517</t>
+  </si>
+  <si>
+    <t>Srilekha Sill</t>
+  </si>
+  <si>
+    <t>AF0405229</t>
+  </si>
+  <si>
+    <t>Trisa Sharma</t>
+  </si>
+  <si>
+    <t>AF0405459</t>
+  </si>
+  <si>
+    <t>Jagrota Sadhukhan</t>
+  </si>
+  <si>
+    <t>AF0415467</t>
+  </si>
+  <si>
+    <t>Tanmay Nandi</t>
+  </si>
+  <si>
+    <t>AF0475225</t>
+  </si>
+  <si>
+    <t>Pinki Baidya</t>
+  </si>
+  <si>
+    <t>Manivaram</t>
+  </si>
+  <si>
+    <t>Jeyashri Chandramohan</t>
+  </si>
+  <si>
+    <t>Kevin Manuel M</t>
+  </si>
+  <si>
+    <t>9339248374</t>
+  </si>
+  <si>
+    <t>9679048789</t>
+  </si>
+  <si>
+    <t>8293549097</t>
+  </si>
+  <si>
+    <t>8822104984</t>
+  </si>
+  <si>
+    <t>7099169182</t>
+  </si>
+  <si>
+    <t>7896841732</t>
+  </si>
+  <si>
+    <t>9395307618</t>
+  </si>
+  <si>
+    <t>6003668469</t>
+  </si>
+  <si>
+    <t>8822073882</t>
+  </si>
+  <si>
+    <t>7636887496</t>
+  </si>
+  <si>
+    <t>8474078476</t>
+  </si>
+  <si>
+    <t>6913327395</t>
+  </si>
+  <si>
+    <t>6003130410</t>
+  </si>
+  <si>
+    <t>9394629854</t>
+  </si>
+  <si>
+    <t>8135958238</t>
+  </si>
+  <si>
+    <t>9395364415</t>
+  </si>
+  <si>
+    <t>7635950815</t>
+  </si>
+  <si>
+    <t>7362877181</t>
+  </si>
+  <si>
+    <t>9395132836</t>
+  </si>
+  <si>
+    <t>6002199422</t>
+  </si>
+  <si>
+    <t>8472064372</t>
+  </si>
+  <si>
+    <t>8638862248</t>
+  </si>
+  <si>
+    <t>7896210248</t>
+  </si>
+  <si>
+    <t>6002794461</t>
+  </si>
+  <si>
+    <t>6001648934</t>
+  </si>
+  <si>
+    <t>9395048357</t>
+  </si>
+  <si>
+    <t>9707540528</t>
+  </si>
+  <si>
+    <t>8822534683</t>
+  </si>
+  <si>
+    <t>6003594783</t>
+  </si>
+  <si>
+    <t>8723038395</t>
+  </si>
+  <si>
+    <t>9864058383</t>
+  </si>
+  <si>
+    <t>8638725832</t>
+  </si>
+  <si>
+    <t>8276054759</t>
+  </si>
+  <si>
+    <t>8250833707</t>
+  </si>
+  <si>
+    <t>9903868110</t>
+  </si>
+  <si>
+    <t>9903717922</t>
+  </si>
+  <si>
+    <t>9073210945</t>
+  </si>
+  <si>
+    <t>8240095033</t>
+  </si>
+  <si>
+    <t>7044270902</t>
+  </si>
+  <si>
+    <t>7439115516</t>
+  </si>
+  <si>
+    <t>7044805395</t>
+  </si>
+  <si>
+    <t>AF0423599</t>
+  </si>
+  <si>
+    <t>SUBHASIS GANGULY</t>
+  </si>
+  <si>
+    <t>7003022788</t>
+  </si>
+  <si>
+    <t>WBBAR</t>
+  </si>
+  <si>
+    <t>Mow Santra</t>
+  </si>
+  <si>
+    <t>AF0462561</t>
+  </si>
+  <si>
+    <t>Bhaskar Ghosh</t>
+  </si>
+  <si>
+    <t>8910110581</t>
+  </si>
+  <si>
+    <t>AF0461737</t>
+  </si>
+  <si>
+    <t>Ricky Roy</t>
+  </si>
+  <si>
+    <t>9874094170</t>
+  </si>
+  <si>
+    <t>Somnath Pal</t>
+  </si>
+  <si>
+    <t>AF0473674</t>
+  </si>
+  <si>
+    <t>Dipali Bhagat</t>
+  </si>
+  <si>
+    <t>9330453319</t>
+  </si>
+  <si>
+    <t>ANUDIP FOUNDATION FOR SOCIAL WELFARE--A.K. INFOTECH COMPUTER ACADEMY --NAGERBAZAR--YES BANK FOUNDATI</t>
+  </si>
+  <si>
+    <t>AF0480628</t>
+  </si>
+  <si>
+    <t>waker unis</t>
+  </si>
+  <si>
+    <t>7029309347</t>
+  </si>
+  <si>
+    <t>AF0474575</t>
+  </si>
+  <si>
+    <t>Satyaprakash Maharana</t>
+  </si>
+  <si>
+    <t>8658581743</t>
+  </si>
+  <si>
+    <t>ODBAD</t>
+  </si>
+  <si>
+    <t>Monalisa Moharana</t>
+  </si>
+  <si>
+    <t>AF0475229</t>
+  </si>
+  <si>
+    <t>Rashmita Biswal</t>
+  </si>
+  <si>
+    <t>7205877245</t>
+  </si>
+  <si>
+    <t>AF0476291</t>
+  </si>
+  <si>
+    <t>Debasish Jena</t>
+  </si>
+  <si>
+    <t>6371517064</t>
+  </si>
+  <si>
+    <t>AF0477351</t>
+  </si>
+  <si>
+    <t>Muna Maharana</t>
+  </si>
+  <si>
+    <t>7853061650</t>
+  </si>
+  <si>
+    <t>10:00 AM - 11:00 AM</t>
+  </si>
+  <si>
+    <t>PALASH PAL</t>
+  </si>
+  <si>
+    <t>AF0418782</t>
+  </si>
+  <si>
+    <t>RUPSA NASRIN</t>
+  </si>
+  <si>
+    <t>WBMGH</t>
+  </si>
+  <si>
+    <t>Palash Pal</t>
+  </si>
+  <si>
+    <t>6295522612</t>
+  </si>
+  <si>
+    <t>SWIGGY INSTAMART (BUNDL TECHNOLOGIESPVT LTD)</t>
+  </si>
+  <si>
+    <t>NOT YET VERIFICATION DONE</t>
+  </si>
+  <si>
+    <t>TAURUS BPO</t>
+  </si>
+  <si>
+    <t>Startek</t>
+  </si>
+  <si>
+    <t>TAURUS BPO SERVICES INDIA</t>
+  </si>
+  <si>
+    <t>TATWA TECHNOLOGY KOLKATA</t>
+  </si>
+  <si>
+    <t>Taurus BPO - WB</t>
+  </si>
+  <si>
+    <t>OKAY CALL CENTER-SEALDAH</t>
+  </si>
+  <si>
+    <t>Pacesetters Business Business Solutions</t>
+  </si>
+  <si>
+    <t>VGM CONSULTANTS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>AARAV SOFTTECH</t>
+  </si>
+  <si>
+    <t>Kochar Infotech Limited</t>
   </si>
 </sst>
 </file>
@@ -771,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9FC473-EE0B-4B84-814A-0FB9608809A4}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O76"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,13 +1167,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -865,8 +1198,8 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2">
-        <v>9339248374</v>
+      <c r="H2" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -881,13 +1214,13 @@
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -912,8 +1245,8 @@
       <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2">
-        <v>9679048789</v>
+      <c r="H3" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
@@ -928,13 +1261,13 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N3" t="s">
         <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -959,8 +1292,8 @@
       <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2">
-        <v>8293549097</v>
+      <c r="H4" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -975,13 +1308,13 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N4" t="s">
         <v>13</v>
       </c>
       <c r="O4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -1006,8 +1339,8 @@
       <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2">
-        <v>9339248374</v>
+      <c r="H5" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
@@ -1022,13 +1355,13 @@
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -1053,8 +1386,8 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="2">
-        <v>9679048789</v>
+      <c r="H6" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
@@ -1069,13 +1402,13 @@
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s">
         <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -1100,8 +1433,8 @@
       <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="2">
-        <v>8293549097</v>
+      <c r="H7" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
@@ -1116,13 +1449,13 @@
         <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N7" t="s">
         <v>13</v>
       </c>
       <c r="O7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -1147,8 +1480,8 @@
       <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="2">
-        <v>8822104984</v>
+      <c r="H8" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
@@ -1163,13 +1496,13 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="N8" t="s">
         <v>13</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -1194,8 +1527,8 @@
       <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="2">
-        <v>7099169182</v>
+      <c r="H9" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="I9" t="s">
         <v>33</v>
@@ -1210,13 +1543,13 @@
         <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="N9" t="s">
         <v>13</v>
       </c>
       <c r="O9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -1241,8 +1574,8 @@
       <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="2">
-        <v>7896841732</v>
+      <c r="H10" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="I10" t="s">
         <v>33</v>
@@ -1257,13 +1590,13 @@
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s">
         <v>13</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -1288,8 +1621,8 @@
       <c r="G11" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="2">
-        <v>9395307618</v>
+      <c r="H11" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="I11" t="s">
         <v>33</v>
@@ -1304,13 +1637,13 @@
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s">
         <v>13</v>
       </c>
       <c r="O11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -1335,8 +1668,8 @@
       <c r="G12" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="2">
-        <v>6003668469</v>
+      <c r="H12" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="I12" t="s">
         <v>33</v>
@@ -1351,13 +1684,13 @@
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N12" t="s">
         <v>13</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -1382,8 +1715,8 @@
       <c r="G13" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="2">
-        <v>8822073882</v>
+      <c r="H13" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="I13" t="s">
         <v>33</v>
@@ -1398,13 +1731,13 @@
         <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N13" t="s">
         <v>13</v>
       </c>
       <c r="O13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -1429,8 +1762,8 @@
       <c r="G14" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="2">
-        <v>7636887496</v>
+      <c r="H14" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I14" t="s">
         <v>33</v>
@@ -1445,13 +1778,13 @@
         <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N14" t="s">
         <v>13</v>
       </c>
       <c r="O14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -1476,8 +1809,8 @@
       <c r="G15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="2">
-        <v>8474078476</v>
+      <c r="H15" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="I15" t="s">
         <v>33</v>
@@ -1492,13 +1825,13 @@
         <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N15" t="s">
         <v>13</v>
       </c>
       <c r="O15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -1523,8 +1856,8 @@
       <c r="G16" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="2">
-        <v>6913327395</v>
+      <c r="H16" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="I16" t="s">
         <v>33</v>
@@ -1539,13 +1872,13 @@
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N16" t="s">
         <v>13</v>
       </c>
       <c r="O16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -1570,8 +1903,8 @@
       <c r="G17" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="2">
-        <v>6003130410</v>
+      <c r="H17" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="I17" t="s">
         <v>33</v>
@@ -1586,13 +1919,13 @@
         <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N17" t="s">
         <v>13</v>
       </c>
       <c r="O17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -1617,8 +1950,8 @@
       <c r="G18" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="2">
-        <v>9394629854</v>
+      <c r="H18" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="I18" t="s">
         <v>33</v>
@@ -1633,13 +1966,13 @@
         <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N18" t="s">
         <v>13</v>
       </c>
       <c r="O18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -1664,8 +1997,8 @@
       <c r="G19" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="2">
-        <v>8135958238</v>
+      <c r="H19" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="I19" t="s">
         <v>33</v>
@@ -1680,13 +2013,13 @@
         <v>15</v>
       </c>
       <c r="M19" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N19" t="s">
         <v>13</v>
       </c>
       <c r="O19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -1711,8 +2044,8 @@
       <c r="G20" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="2">
-        <v>9395364415</v>
+      <c r="H20" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I20" t="s">
         <v>33</v>
@@ -1727,13 +2060,13 @@
         <v>15</v>
       </c>
       <c r="M20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N20" t="s">
         <v>13</v>
       </c>
       <c r="O20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -1758,8 +2091,8 @@
       <c r="G21" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="2">
-        <v>7635950815</v>
+      <c r="H21" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="I21" t="s">
         <v>33</v>
@@ -1774,13 +2107,13 @@
         <v>15</v>
       </c>
       <c r="M21" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N21" t="s">
         <v>13</v>
       </c>
       <c r="O21" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -1805,8 +2138,8 @@
       <c r="G22" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="2">
-        <v>7362877181</v>
+      <c r="H22" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="I22" t="s">
         <v>33</v>
@@ -1821,13 +2154,13 @@
         <v>15</v>
       </c>
       <c r="M22" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N22" t="s">
         <v>13</v>
       </c>
       <c r="O22" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -1852,8 +2185,8 @@
       <c r="G23" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="2">
-        <v>9395132836</v>
+      <c r="H23" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="I23" t="s">
         <v>33</v>
@@ -1868,13 +2201,13 @@
         <v>15</v>
       </c>
       <c r="M23" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N23" t="s">
         <v>13</v>
       </c>
       <c r="O23" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -1899,8 +2232,8 @@
       <c r="G24" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="2">
-        <v>6002199422</v>
+      <c r="H24" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="I24" t="s">
         <v>33</v>
@@ -1915,13 +2248,13 @@
         <v>15</v>
       </c>
       <c r="M24" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="N24" t="s">
         <v>13</v>
       </c>
       <c r="O24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -1946,8 +2279,8 @@
       <c r="G25" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="2">
-        <v>8472064372</v>
+      <c r="H25" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="I25" t="s">
         <v>33</v>
@@ -1962,13 +2295,13 @@
         <v>15</v>
       </c>
       <c r="M25" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N25" t="s">
         <v>13</v>
       </c>
       <c r="O25" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -1993,8 +2326,8 @@
       <c r="G26" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="2">
-        <v>8822104984</v>
+      <c r="H26" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="I26" t="s">
         <v>33</v>
@@ -2009,13 +2342,13 @@
         <v>15</v>
       </c>
       <c r="M26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="N26" t="s">
         <v>13</v>
       </c>
       <c r="O26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -2040,8 +2373,8 @@
       <c r="G27" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="2">
-        <v>7099169182</v>
+      <c r="H27" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="I27" t="s">
         <v>33</v>
@@ -2056,13 +2389,13 @@
         <v>15</v>
       </c>
       <c r="M27" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="N27" t="s">
         <v>13</v>
       </c>
       <c r="O27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -2087,8 +2420,8 @@
       <c r="G28" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="2">
-        <v>7896841732</v>
+      <c r="H28" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="I28" t="s">
         <v>33</v>
@@ -2103,13 +2436,13 @@
         <v>15</v>
       </c>
       <c r="M28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N28" t="s">
         <v>13</v>
       </c>
       <c r="O28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -2134,8 +2467,8 @@
       <c r="G29" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="2">
-        <v>9395307618</v>
+      <c r="H29" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="I29" t="s">
         <v>33</v>
@@ -2150,13 +2483,13 @@
         <v>15</v>
       </c>
       <c r="M29" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N29" t="s">
         <v>13</v>
       </c>
       <c r="O29" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -2181,8 +2514,8 @@
       <c r="G30" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="2">
-        <v>6003668469</v>
+      <c r="H30" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="I30" t="s">
         <v>33</v>
@@ -2197,13 +2530,13 @@
         <v>15</v>
       </c>
       <c r="M30" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N30" t="s">
         <v>13</v>
       </c>
       <c r="O30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -2228,8 +2561,8 @@
       <c r="G31" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="2">
-        <v>8822073882</v>
+      <c r="H31" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="I31" t="s">
         <v>33</v>
@@ -2244,13 +2577,13 @@
         <v>15</v>
       </c>
       <c r="M31" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N31" t="s">
         <v>13</v>
       </c>
       <c r="O31" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -2275,8 +2608,8 @@
       <c r="G32" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="2">
-        <v>7636887496</v>
+      <c r="H32" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I32" t="s">
         <v>33</v>
@@ -2291,13 +2624,13 @@
         <v>15</v>
       </c>
       <c r="M32" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N32" t="s">
         <v>13</v>
       </c>
       <c r="O32" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -2322,8 +2655,8 @@
       <c r="G33" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="2">
-        <v>8474078476</v>
+      <c r="H33" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="I33" t="s">
         <v>33</v>
@@ -2338,13 +2671,13 @@
         <v>15</v>
       </c>
       <c r="M33" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N33" t="s">
         <v>13</v>
       </c>
       <c r="O33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -2369,8 +2702,8 @@
       <c r="G34" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="2">
-        <v>6913327395</v>
+      <c r="H34" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="I34" t="s">
         <v>33</v>
@@ -2385,13 +2718,13 @@
         <v>15</v>
       </c>
       <c r="M34" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N34" t="s">
         <v>13</v>
       </c>
       <c r="O34" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -2416,8 +2749,8 @@
       <c r="G35" t="s">
         <v>51</v>
       </c>
-      <c r="H35" s="2">
-        <v>6003130410</v>
+      <c r="H35" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="I35" t="s">
         <v>33</v>
@@ -2432,13 +2765,13 @@
         <v>15</v>
       </c>
       <c r="M35" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N35" t="s">
         <v>13</v>
       </c>
       <c r="O35" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -2463,8 +2796,8 @@
       <c r="G36" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="2">
-        <v>9394629854</v>
+      <c r="H36" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="I36" t="s">
         <v>33</v>
@@ -2479,13 +2812,13 @@
         <v>15</v>
       </c>
       <c r="M36" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N36" t="s">
         <v>13</v>
       </c>
       <c r="O36" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -2510,8 +2843,8 @@
       <c r="G37" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="2">
-        <v>8135958238</v>
+      <c r="H37" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="I37" t="s">
         <v>33</v>
@@ -2526,13 +2859,13 @@
         <v>15</v>
       </c>
       <c r="M37" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N37" t="s">
         <v>13</v>
       </c>
       <c r="O37" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -2557,8 +2890,8 @@
       <c r="G38" t="s">
         <v>57</v>
       </c>
-      <c r="H38" s="2">
-        <v>9395364415</v>
+      <c r="H38" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I38" t="s">
         <v>33</v>
@@ -2573,13 +2906,13 @@
         <v>15</v>
       </c>
       <c r="M38" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N38" t="s">
         <v>13</v>
       </c>
       <c r="O38" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -2604,8 +2937,8 @@
       <c r="G39" t="s">
         <v>59</v>
       </c>
-      <c r="H39" s="2">
-        <v>7635950815</v>
+      <c r="H39" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="I39" t="s">
         <v>33</v>
@@ -2620,13 +2953,13 @@
         <v>15</v>
       </c>
       <c r="M39" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N39" t="s">
         <v>13</v>
       </c>
       <c r="O39" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -2651,8 +2984,8 @@
       <c r="G40" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="2">
-        <v>7362877181</v>
+      <c r="H40" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="I40" t="s">
         <v>33</v>
@@ -2667,13 +3000,13 @@
         <v>15</v>
       </c>
       <c r="M40" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N40" t="s">
         <v>13</v>
       </c>
       <c r="O40" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -2698,8 +3031,8 @@
       <c r="G41" t="s">
         <v>63</v>
       </c>
-      <c r="H41" s="2">
-        <v>9395132836</v>
+      <c r="H41" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="I41" t="s">
         <v>33</v>
@@ -2714,13 +3047,13 @@
         <v>15</v>
       </c>
       <c r="M41" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N41" t="s">
         <v>13</v>
       </c>
       <c r="O41" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -2745,8 +3078,8 @@
       <c r="G42" t="s">
         <v>65</v>
       </c>
-      <c r="H42" s="2">
-        <v>6002199422</v>
+      <c r="H42" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="I42" t="s">
         <v>33</v>
@@ -2761,13 +3094,13 @@
         <v>15</v>
       </c>
       <c r="M42" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="N42" t="s">
         <v>13</v>
       </c>
       <c r="O42" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -2792,8 +3125,8 @@
       <c r="G43" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="2">
-        <v>8472064372</v>
+      <c r="H43" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="I43" t="s">
         <v>33</v>
@@ -2808,13 +3141,13 @@
         <v>15</v>
       </c>
       <c r="M43" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N43" t="s">
         <v>13</v>
       </c>
       <c r="O43" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -2839,8 +3172,8 @@
       <c r="G44" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="2">
-        <v>8822104984</v>
+      <c r="H44" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="I44" t="s">
         <v>33</v>
@@ -2855,13 +3188,13 @@
         <v>15</v>
       </c>
       <c r="M44" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="N44" t="s">
         <v>13</v>
       </c>
       <c r="O44" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -2886,8 +3219,8 @@
       <c r="G45" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="2">
-        <v>7099169182</v>
+      <c r="H45" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="I45" t="s">
         <v>33</v>
@@ -2902,13 +3235,13 @@
         <v>15</v>
       </c>
       <c r="M45" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="N45" t="s">
         <v>13</v>
       </c>
       <c r="O45" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -2933,8 +3266,8 @@
       <c r="G46" t="s">
         <v>37</v>
       </c>
-      <c r="H46" s="2">
-        <v>7896841732</v>
+      <c r="H46" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="I46" t="s">
         <v>33</v>
@@ -2949,13 +3282,13 @@
         <v>15</v>
       </c>
       <c r="M46" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N46" t="s">
         <v>13</v>
       </c>
       <c r="O46" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -2980,8 +3313,8 @@
       <c r="G47" t="s">
         <v>39</v>
       </c>
-      <c r="H47" s="2">
-        <v>9395307618</v>
+      <c r="H47" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="I47" t="s">
         <v>33</v>
@@ -2996,13 +3329,13 @@
         <v>15</v>
       </c>
       <c r="M47" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N47" t="s">
         <v>13</v>
       </c>
       <c r="O47" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -3027,8 +3360,8 @@
       <c r="G48" t="s">
         <v>41</v>
       </c>
-      <c r="H48" s="2">
-        <v>6003668469</v>
+      <c r="H48" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="I48" t="s">
         <v>33</v>
@@ -3043,13 +3376,13 @@
         <v>15</v>
       </c>
       <c r="M48" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N48" t="s">
         <v>13</v>
       </c>
       <c r="O48" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -3074,8 +3407,8 @@
       <c r="G49" t="s">
         <v>43</v>
       </c>
-      <c r="H49" s="2">
-        <v>8822073882</v>
+      <c r="H49" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="I49" t="s">
         <v>33</v>
@@ -3090,13 +3423,13 @@
         <v>15</v>
       </c>
       <c r="M49" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N49" t="s">
         <v>13</v>
       </c>
       <c r="O49" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -3121,8 +3454,8 @@
       <c r="G50" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="2">
-        <v>7636887496</v>
+      <c r="H50" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I50" t="s">
         <v>33</v>
@@ -3137,13 +3470,13 @@
         <v>15</v>
       </c>
       <c r="M50" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N50" t="s">
         <v>13</v>
       </c>
       <c r="O50" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -3168,8 +3501,8 @@
       <c r="G51" t="s">
         <v>47</v>
       </c>
-      <c r="H51" s="2">
-        <v>8474078476</v>
+      <c r="H51" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="I51" t="s">
         <v>33</v>
@@ -3184,13 +3517,13 @@
         <v>15</v>
       </c>
       <c r="M51" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N51" t="s">
         <v>13</v>
       </c>
       <c r="O51" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -3215,8 +3548,8 @@
       <c r="G52" t="s">
         <v>49</v>
       </c>
-      <c r="H52">
-        <v>6913327395</v>
+      <c r="H52" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="I52" t="s">
         <v>33</v>
@@ -3231,13 +3564,13 @@
         <v>15</v>
       </c>
       <c r="M52" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N52" t="s">
         <v>13</v>
       </c>
       <c r="O52" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -3262,8 +3595,8 @@
       <c r="G53" t="s">
         <v>51</v>
       </c>
-      <c r="H53">
-        <v>6003130410</v>
+      <c r="H53" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="I53" t="s">
         <v>33</v>
@@ -3278,13 +3611,13 @@
         <v>15</v>
       </c>
       <c r="M53" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N53" t="s">
         <v>13</v>
       </c>
       <c r="O53" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -3309,8 +3642,8 @@
       <c r="G54" t="s">
         <v>53</v>
       </c>
-      <c r="H54">
-        <v>9394629854</v>
+      <c r="H54" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="I54" t="s">
         <v>33</v>
@@ -3325,13 +3658,13 @@
         <v>15</v>
       </c>
       <c r="M54" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N54" t="s">
         <v>13</v>
       </c>
       <c r="O54" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -3356,8 +3689,8 @@
       <c r="G55" t="s">
         <v>55</v>
       </c>
-      <c r="H55">
-        <v>8135958238</v>
+      <c r="H55" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="I55" t="s">
         <v>33</v>
@@ -3372,13 +3705,13 @@
         <v>15</v>
       </c>
       <c r="M55" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N55" t="s">
         <v>13</v>
       </c>
       <c r="O55" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -3403,8 +3736,8 @@
       <c r="G56" t="s">
         <v>57</v>
       </c>
-      <c r="H56">
-        <v>9395364415</v>
+      <c r="H56" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I56" t="s">
         <v>33</v>
@@ -3419,13 +3752,13 @@
         <v>15</v>
       </c>
       <c r="M56" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N56" t="s">
         <v>13</v>
       </c>
       <c r="O56" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -3450,8 +3783,8 @@
       <c r="G57" t="s">
         <v>59</v>
       </c>
-      <c r="H57">
-        <v>7635950815</v>
+      <c r="H57" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="I57" t="s">
         <v>33</v>
@@ -3466,13 +3799,13 @@
         <v>15</v>
       </c>
       <c r="M57" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N57" t="s">
         <v>13</v>
       </c>
       <c r="O57" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -3497,8 +3830,8 @@
       <c r="G58" t="s">
         <v>61</v>
       </c>
-      <c r="H58">
-        <v>7362877181</v>
+      <c r="H58" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="I58" t="s">
         <v>33</v>
@@ -3513,13 +3846,13 @@
         <v>15</v>
       </c>
       <c r="M58" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N58" t="s">
         <v>13</v>
       </c>
       <c r="O58" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -3544,8 +3877,8 @@
       <c r="G59" t="s">
         <v>63</v>
       </c>
-      <c r="H59">
-        <v>9395132836</v>
+      <c r="H59" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="I59" t="s">
         <v>33</v>
@@ -3560,13 +3893,13 @@
         <v>15</v>
       </c>
       <c r="M59" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N59" t="s">
         <v>13</v>
       </c>
       <c r="O59" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -3591,8 +3924,8 @@
       <c r="G60" t="s">
         <v>65</v>
       </c>
-      <c r="H60">
-        <v>6002199422</v>
+      <c r="H60" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="I60" t="s">
         <v>33</v>
@@ -3607,13 +3940,13 @@
         <v>15</v>
       </c>
       <c r="M60" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="N60" t="s">
         <v>13</v>
       </c>
       <c r="O60" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -3638,8 +3971,8 @@
       <c r="G61" t="s">
         <v>67</v>
       </c>
-      <c r="H61">
-        <v>8472064372</v>
+      <c r="H61" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="I61" t="s">
         <v>33</v>
@@ -3654,38 +3987,38 @@
         <v>15</v>
       </c>
       <c r="M61" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N61" t="s">
         <v>13</v>
       </c>
       <c r="O61" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" t="s">
         <v>68</v>
-      </c>
-      <c r="C62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" t="s">
-        <v>30</v>
-      </c>
-      <c r="N62" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -3694,13 +4027,40 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>69</v>
+      </c>
+      <c r="F63" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I63" t="s">
+        <v>72</v>
+      </c>
+      <c r="J63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K63" t="s">
+        <v>73</v>
+      </c>
+      <c r="L63" t="s">
+        <v>15</v>
+      </c>
+      <c r="M63" t="s">
+        <v>113</v>
       </c>
       <c r="N63" t="s">
-        <v>69</v>
+        <v>13</v>
+      </c>
+      <c r="O63" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -3717,37 +4077,37 @@
         <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" t="s">
+        <v>74</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I64" t="s">
         <v>72</v>
       </c>
-      <c r="G64" t="s">
-        <v>71</v>
-      </c>
-      <c r="H64">
-        <v>8638862248</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
+        <v>69</v>
+      </c>
+      <c r="K64" t="s">
         <v>73</v>
       </c>
-      <c r="J64" t="s">
-        <v>70</v>
-      </c>
-      <c r="K64" t="s">
-        <v>74</v>
-      </c>
       <c r="L64" t="s">
         <v>15</v>
       </c>
       <c r="M64" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N64" t="s">
         <v>13</v>
       </c>
       <c r="O64" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -3764,37 +4124,37 @@
         <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F65" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s">
         <v>76</v>
       </c>
-      <c r="G65" t="s">
-        <v>75</v>
-      </c>
-      <c r="H65">
-        <v>7896210248</v>
+      <c r="H65" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="I65" t="s">
+        <v>72</v>
+      </c>
+      <c r="J65" t="s">
+        <v>69</v>
+      </c>
+      <c r="K65" t="s">
         <v>73</v>
       </c>
-      <c r="J65" t="s">
-        <v>70</v>
-      </c>
-      <c r="K65" t="s">
-        <v>74</v>
-      </c>
       <c r="L65" t="s">
         <v>15</v>
       </c>
       <c r="M65" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N65" t="s">
         <v>13</v>
       </c>
       <c r="O65" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -3811,37 +4171,37 @@
         <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F66" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s">
         <v>78</v>
       </c>
-      <c r="G66" t="s">
-        <v>77</v>
-      </c>
-      <c r="H66">
-        <v>6002794461</v>
+      <c r="H66" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="I66" t="s">
+        <v>72</v>
+      </c>
+      <c r="J66" t="s">
+        <v>69</v>
+      </c>
+      <c r="K66" t="s">
         <v>73</v>
       </c>
-      <c r="J66" t="s">
-        <v>70</v>
-      </c>
-      <c r="K66" t="s">
-        <v>74</v>
-      </c>
       <c r="L66" t="s">
         <v>15</v>
       </c>
       <c r="M66" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N66" t="s">
         <v>13</v>
       </c>
       <c r="O66" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -3858,37 +4218,37 @@
         <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F67" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" t="s">
         <v>80</v>
       </c>
-      <c r="G67" t="s">
-        <v>79</v>
-      </c>
-      <c r="H67">
-        <v>6001648934</v>
+      <c r="H67" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="I67" t="s">
+        <v>72</v>
+      </c>
+      <c r="J67" t="s">
+        <v>69</v>
+      </c>
+      <c r="K67" t="s">
         <v>73</v>
       </c>
-      <c r="J67" t="s">
-        <v>70</v>
-      </c>
-      <c r="K67" t="s">
-        <v>74</v>
-      </c>
       <c r="L67" t="s">
         <v>15</v>
       </c>
       <c r="M67" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="N67" t="s">
         <v>13</v>
       </c>
       <c r="O67" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -3905,37 +4265,37 @@
         <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F68" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" t="s">
         <v>82</v>
       </c>
-      <c r="G68" t="s">
-        <v>81</v>
-      </c>
-      <c r="H68">
-        <v>9395048357</v>
+      <c r="H68" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="I68" t="s">
+        <v>72</v>
+      </c>
+      <c r="J68" t="s">
+        <v>69</v>
+      </c>
+      <c r="K68" t="s">
         <v>73</v>
       </c>
-      <c r="J68" t="s">
-        <v>70</v>
-      </c>
-      <c r="K68" t="s">
-        <v>74</v>
-      </c>
       <c r="L68" t="s">
         <v>15</v>
       </c>
       <c r="M68" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N68" t="s">
         <v>13</v>
       </c>
       <c r="O68" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -3952,37 +4312,37 @@
         <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F69" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" t="s">
         <v>84</v>
       </c>
-      <c r="G69" t="s">
-        <v>83</v>
-      </c>
-      <c r="H69">
-        <v>9707540528</v>
+      <c r="H69" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="I69" t="s">
+        <v>72</v>
+      </c>
+      <c r="J69" t="s">
+        <v>69</v>
+      </c>
+      <c r="K69" t="s">
         <v>73</v>
       </c>
-      <c r="J69" t="s">
-        <v>70</v>
-      </c>
-      <c r="K69" t="s">
-        <v>74</v>
-      </c>
       <c r="L69" t="s">
         <v>15</v>
       </c>
       <c r="M69" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="N69" t="s">
         <v>13</v>
       </c>
       <c r="O69" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -3999,37 +4359,37 @@
         <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F70" t="s">
+        <v>87</v>
+      </c>
+      <c r="G70" t="s">
         <v>86</v>
       </c>
-      <c r="G70" t="s">
-        <v>85</v>
-      </c>
-      <c r="H70">
-        <v>8822534683</v>
+      <c r="H70" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="I70" t="s">
+        <v>72</v>
+      </c>
+      <c r="J70" t="s">
+        <v>69</v>
+      </c>
+      <c r="K70" t="s">
         <v>73</v>
       </c>
-      <c r="J70" t="s">
-        <v>70</v>
-      </c>
-      <c r="K70" t="s">
-        <v>74</v>
-      </c>
       <c r="L70" t="s">
         <v>15</v>
       </c>
       <c r="M70" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="N70" t="s">
         <v>13</v>
       </c>
       <c r="O70" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
@@ -4046,37 +4406,37 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F71" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" t="s">
         <v>88</v>
       </c>
-      <c r="G71" t="s">
-        <v>87</v>
-      </c>
-      <c r="H71">
-        <v>6003594783</v>
+      <c r="H71" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="I71" t="s">
+        <v>72</v>
+      </c>
+      <c r="J71" t="s">
+        <v>69</v>
+      </c>
+      <c r="K71" t="s">
         <v>73</v>
       </c>
-      <c r="J71" t="s">
-        <v>70</v>
-      </c>
-      <c r="K71" t="s">
-        <v>74</v>
-      </c>
       <c r="L71" t="s">
         <v>15</v>
       </c>
       <c r="M71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N71" t="s">
         <v>13</v>
       </c>
       <c r="O71" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
@@ -4093,37 +4453,37 @@
         <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F72" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" t="s">
         <v>90</v>
       </c>
-      <c r="G72" t="s">
-        <v>89</v>
-      </c>
-      <c r="H72">
-        <v>8723038395</v>
+      <c r="H72" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="I72" t="s">
+        <v>72</v>
+      </c>
+      <c r="J72" t="s">
+        <v>69</v>
+      </c>
+      <c r="K72" t="s">
         <v>73</v>
       </c>
-      <c r="J72" t="s">
-        <v>70</v>
-      </c>
-      <c r="K72" t="s">
-        <v>74</v>
-      </c>
       <c r="L72" t="s">
         <v>15</v>
       </c>
       <c r="M72" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="N72" t="s">
         <v>13</v>
       </c>
       <c r="O72" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
@@ -4140,182 +4500,2076 @@
         <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F73" t="s">
+        <v>93</v>
+      </c>
+      <c r="G73" t="s">
         <v>92</v>
       </c>
-      <c r="G73" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73">
-        <v>9864058383</v>
+      <c r="H73" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="I73" t="s">
+        <v>72</v>
+      </c>
+      <c r="J73" t="s">
+        <v>69</v>
+      </c>
+      <c r="K73" t="s">
         <v>73</v>
       </c>
-      <c r="J73" t="s">
-        <v>70</v>
-      </c>
-      <c r="K73" t="s">
-        <v>74</v>
-      </c>
       <c r="L73" t="s">
         <v>15</v>
       </c>
       <c r="M73" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N73" t="s">
         <v>13</v>
       </c>
       <c r="O73" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="E74" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="F74" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" t="s">
+        <v>123</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I74" t="s">
+        <v>124</v>
+      </c>
+      <c r="J74" t="s">
+        <v>125</v>
+      </c>
+      <c r="K74" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" t="s">
         <v>94</v>
       </c>
-      <c r="G74" t="s">
-        <v>93</v>
-      </c>
-      <c r="H74">
-        <v>8638725832</v>
-      </c>
-      <c r="I74" t="s">
-        <v>73</v>
-      </c>
-      <c r="J74" t="s">
-        <v>70</v>
-      </c>
-      <c r="K74" t="s">
-        <v>74</v>
-      </c>
-      <c r="L74" t="s">
-        <v>15</v>
-      </c>
       <c r="M74" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="N74" t="s">
         <v>13</v>
       </c>
       <c r="O74" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>45773</v>
+        <v>45775</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="F75" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I75" t="s">
+        <v>124</v>
+      </c>
+      <c r="J75" t="s">
+        <v>125</v>
+      </c>
+      <c r="K75" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" t="s">
+        <v>94</v>
+      </c>
+      <c r="M75" t="s">
+        <v>228</v>
+      </c>
+      <c r="N75" t="s">
+        <v>13</v>
+      </c>
+      <c r="O75" t="s">
         <v>96</v>
-      </c>
-      <c r="G75" t="s">
-        <v>97</v>
-      </c>
-      <c r="H75">
-        <v>9064149363</v>
-      </c>
-      <c r="I75" t="s">
-        <v>98</v>
-      </c>
-      <c r="J75" t="s">
-        <v>95</v>
-      </c>
-      <c r="K75" t="s">
-        <v>14</v>
-      </c>
-      <c r="L75" t="s">
-        <v>99</v>
-      </c>
-      <c r="M75" t="s">
-        <v>126</v>
-      </c>
-      <c r="N75" t="s">
-        <v>13</v>
-      </c>
-      <c r="O75" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>45773</v>
+        <v>45775</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="E76" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="F76" t="s">
+        <v>128</v>
+      </c>
+      <c r="G76" t="s">
+        <v>129</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I76" t="s">
+        <v>124</v>
+      </c>
+      <c r="J76" t="s">
+        <v>125</v>
+      </c>
+      <c r="K76" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" t="s">
+        <v>94</v>
+      </c>
+      <c r="M76" t="s">
+        <v>104</v>
+      </c>
+      <c r="N76" t="s">
+        <v>13</v>
+      </c>
+      <c r="O76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" t="s">
+        <v>121</v>
+      </c>
+      <c r="F77" t="s">
+        <v>130</v>
+      </c>
+      <c r="G77" t="s">
+        <v>131</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I77" t="s">
+        <v>124</v>
+      </c>
+      <c r="J77" t="s">
+        <v>125</v>
+      </c>
+      <c r="K77" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" t="s">
+        <v>94</v>
+      </c>
+      <c r="M77" t="s">
+        <v>229</v>
+      </c>
+      <c r="N77" t="s">
+        <v>13</v>
+      </c>
+      <c r="O77" t="s">
         <v>100</v>
       </c>
-      <c r="G76" t="s">
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B78" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>120</v>
+      </c>
+      <c r="E78" t="s">
+        <v>121</v>
+      </c>
+      <c r="F78" t="s">
+        <v>132</v>
+      </c>
+      <c r="G78" t="s">
+        <v>133</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I78" t="s">
+        <v>124</v>
+      </c>
+      <c r="J78" t="s">
+        <v>125</v>
+      </c>
+      <c r="K78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" t="s">
+        <v>94</v>
+      </c>
+      <c r="M78" t="s">
+        <v>104</v>
+      </c>
+      <c r="N78" t="s">
+        <v>13</v>
+      </c>
+      <c r="O78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>120</v>
+      </c>
+      <c r="E79" t="s">
+        <v>121</v>
+      </c>
+      <c r="F79" t="s">
+        <v>134</v>
+      </c>
+      <c r="G79" t="s">
+        <v>135</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I79" t="s">
+        <v>124</v>
+      </c>
+      <c r="J79" t="s">
+        <v>125</v>
+      </c>
+      <c r="K79" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" t="s">
+        <v>94</v>
+      </c>
+      <c r="M79" t="s">
+        <v>104</v>
+      </c>
+      <c r="N79" t="s">
+        <v>13</v>
+      </c>
+      <c r="O79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>120</v>
+      </c>
+      <c r="E80" t="s">
+        <v>121</v>
+      </c>
+      <c r="F80" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80" t="s">
+        <v>137</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I80" t="s">
+        <v>124</v>
+      </c>
+      <c r="J80" t="s">
+        <v>125</v>
+      </c>
+      <c r="K80" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" t="s">
+        <v>94</v>
+      </c>
+      <c r="M80" t="s">
+        <v>104</v>
+      </c>
+      <c r="N80" t="s">
+        <v>13</v>
+      </c>
+      <c r="O80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B81" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>120</v>
+      </c>
+      <c r="E81" t="s">
+        <v>121</v>
+      </c>
+      <c r="F81" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" t="s">
+        <v>139</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I81" t="s">
+        <v>124</v>
+      </c>
+      <c r="J81" t="s">
+        <v>125</v>
+      </c>
+      <c r="K81" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" t="s">
+        <v>94</v>
+      </c>
+      <c r="M81" t="s">
+        <v>230</v>
+      </c>
+      <c r="N81" t="s">
+        <v>13</v>
+      </c>
+      <c r="O81" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" t="s">
+        <v>121</v>
+      </c>
+      <c r="F82" t="s">
+        <v>140</v>
+      </c>
+      <c r="G82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I82" t="s">
+        <v>124</v>
+      </c>
+      <c r="J82" t="s">
+        <v>125</v>
+      </c>
+      <c r="K82" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" t="s">
+        <v>94</v>
+      </c>
+      <c r="M82" t="s">
+        <v>231</v>
+      </c>
+      <c r="N82" t="s">
+        <v>13</v>
+      </c>
+      <c r="O82" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>120</v>
+      </c>
+      <c r="E83" t="s">
+        <v>121</v>
+      </c>
+      <c r="F83" t="s">
+        <v>122</v>
+      </c>
+      <c r="G83" t="s">
+        <v>123</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I83" t="s">
+        <v>124</v>
+      </c>
+      <c r="J83" t="s">
+        <v>125</v>
+      </c>
+      <c r="K83" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" t="s">
+        <v>94</v>
+      </c>
+      <c r="M83" t="s">
+        <v>228</v>
+      </c>
+      <c r="N83" t="s">
+        <v>13</v>
+      </c>
+      <c r="O83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B84" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84" t="s">
+        <v>121</v>
+      </c>
+      <c r="F84" t="s">
+        <v>126</v>
+      </c>
+      <c r="G84" t="s">
+        <v>127</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I84" t="s">
+        <v>124</v>
+      </c>
+      <c r="J84" t="s">
+        <v>125</v>
+      </c>
+      <c r="K84" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" t="s">
+        <v>94</v>
+      </c>
+      <c r="M84" t="s">
+        <v>228</v>
+      </c>
+      <c r="N84" t="s">
+        <v>13</v>
+      </c>
+      <c r="O84" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B85" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>120</v>
+      </c>
+      <c r="E85" t="s">
+        <v>121</v>
+      </c>
+      <c r="F85" t="s">
+        <v>128</v>
+      </c>
+      <c r="G85" t="s">
+        <v>129</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I85" t="s">
+        <v>124</v>
+      </c>
+      <c r="J85" t="s">
+        <v>125</v>
+      </c>
+      <c r="K85" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" t="s">
+        <v>94</v>
+      </c>
+      <c r="M85" t="s">
+        <v>104</v>
+      </c>
+      <c r="N85" t="s">
+        <v>13</v>
+      </c>
+      <c r="O85" t="s">
         <v>101</v>
       </c>
-      <c r="H76">
-        <v>9554985591</v>
-      </c>
-      <c r="I76" t="s">
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B86" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
+        <v>120</v>
+      </c>
+      <c r="E86" t="s">
+        <v>121</v>
+      </c>
+      <c r="F86" t="s">
+        <v>130</v>
+      </c>
+      <c r="G86" t="s">
+        <v>131</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I86" t="s">
+        <v>124</v>
+      </c>
+      <c r="J86" t="s">
+        <v>125</v>
+      </c>
+      <c r="K86" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" t="s">
+        <v>94</v>
+      </c>
+      <c r="M86" t="s">
+        <v>229</v>
+      </c>
+      <c r="N86" t="s">
+        <v>13</v>
+      </c>
+      <c r="O86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B87" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>120</v>
+      </c>
+      <c r="E87" t="s">
+        <v>121</v>
+      </c>
+      <c r="F87" t="s">
+        <v>132</v>
+      </c>
+      <c r="G87" t="s">
+        <v>133</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I87" t="s">
+        <v>124</v>
+      </c>
+      <c r="J87" t="s">
+        <v>125</v>
+      </c>
+      <c r="K87" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" t="s">
+        <v>94</v>
+      </c>
+      <c r="M87" t="s">
+        <v>104</v>
+      </c>
+      <c r="N87" t="s">
+        <v>13</v>
+      </c>
+      <c r="O87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" t="s">
+        <v>121</v>
+      </c>
+      <c r="F88" t="s">
+        <v>134</v>
+      </c>
+      <c r="G88" t="s">
+        <v>135</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I88" t="s">
+        <v>124</v>
+      </c>
+      <c r="J88" t="s">
+        <v>125</v>
+      </c>
+      <c r="K88" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" t="s">
+        <v>94</v>
+      </c>
+      <c r="M88" t="s">
+        <v>104</v>
+      </c>
+      <c r="N88" t="s">
+        <v>13</v>
+      </c>
+      <c r="O88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B89" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" t="s">
+        <v>121</v>
+      </c>
+      <c r="F89" t="s">
+        <v>136</v>
+      </c>
+      <c r="G89" t="s">
+        <v>137</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I89" t="s">
+        <v>124</v>
+      </c>
+      <c r="J89" t="s">
+        <v>125</v>
+      </c>
+      <c r="K89" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" t="s">
+        <v>94</v>
+      </c>
+      <c r="M89" t="s">
+        <v>104</v>
+      </c>
+      <c r="N89" t="s">
+        <v>13</v>
+      </c>
+      <c r="O89" t="s">
         <v>98</v>
       </c>
-      <c r="J76" t="s">
-        <v>95</v>
-      </c>
-      <c r="K76" t="s">
-        <v>14</v>
-      </c>
-      <c r="L76" t="s">
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B90" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>120</v>
+      </c>
+      <c r="E90" t="s">
+        <v>121</v>
+      </c>
+      <c r="F90" t="s">
+        <v>138</v>
+      </c>
+      <c r="G90" t="s">
+        <v>139</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I90" t="s">
+        <v>124</v>
+      </c>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+      <c r="K90" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" t="s">
+        <v>94</v>
+      </c>
+      <c r="M90" t="s">
+        <v>230</v>
+      </c>
+      <c r="N90" t="s">
+        <v>13</v>
+      </c>
+      <c r="O90" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" t="s">
+        <v>121</v>
+      </c>
+      <c r="F91" t="s">
+        <v>140</v>
+      </c>
+      <c r="G91" t="s">
+        <v>141</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+      <c r="K91" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" t="s">
+        <v>94</v>
+      </c>
+      <c r="M91" t="s">
+        <v>231</v>
+      </c>
+      <c r="N91" t="s">
+        <v>13</v>
+      </c>
+      <c r="O91" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B92" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" t="s">
+        <v>121</v>
+      </c>
+      <c r="F92" t="s">
+        <v>122</v>
+      </c>
+      <c r="G92" t="s">
+        <v>123</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I92" t="s">
+        <v>124</v>
+      </c>
+      <c r="J92" t="s">
+        <v>125</v>
+      </c>
+      <c r="K92" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" t="s">
+        <v>94</v>
+      </c>
+      <c r="M92" t="s">
+        <v>228</v>
+      </c>
+      <c r="N92" t="s">
+        <v>13</v>
+      </c>
+      <c r="O92" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" t="s">
+        <v>121</v>
+      </c>
+      <c r="F93" t="s">
+        <v>126</v>
+      </c>
+      <c r="G93" t="s">
+        <v>127</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
+      <c r="J93" t="s">
+        <v>125</v>
+      </c>
+      <c r="K93" t="s">
+        <v>14</v>
+      </c>
+      <c r="L93" t="s">
+        <v>94</v>
+      </c>
+      <c r="M93" t="s">
+        <v>228</v>
+      </c>
+      <c r="N93" t="s">
+        <v>13</v>
+      </c>
+      <c r="O93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94" t="s">
+        <v>121</v>
+      </c>
+      <c r="F94" t="s">
+        <v>128</v>
+      </c>
+      <c r="G94" t="s">
+        <v>129</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I94" t="s">
+        <v>124</v>
+      </c>
+      <c r="J94" t="s">
+        <v>125</v>
+      </c>
+      <c r="K94" t="s">
+        <v>14</v>
+      </c>
+      <c r="L94" t="s">
+        <v>94</v>
+      </c>
+      <c r="M94" t="s">
+        <v>104</v>
+      </c>
+      <c r="N94" t="s">
+        <v>13</v>
+      </c>
+      <c r="O94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B95" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" t="s">
+        <v>121</v>
+      </c>
+      <c r="F95" t="s">
+        <v>130</v>
+      </c>
+      <c r="G95" t="s">
+        <v>131</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I95" t="s">
+        <v>124</v>
+      </c>
+      <c r="J95" t="s">
+        <v>125</v>
+      </c>
+      <c r="K95" t="s">
+        <v>14</v>
+      </c>
+      <c r="L95" t="s">
+        <v>94</v>
+      </c>
+      <c r="M95" t="s">
+        <v>229</v>
+      </c>
+      <c r="N95" t="s">
+        <v>13</v>
+      </c>
+      <c r="O95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B96" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" t="s">
+        <v>121</v>
+      </c>
+      <c r="F96" t="s">
+        <v>132</v>
+      </c>
+      <c r="G96" t="s">
+        <v>133</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+      <c r="J96" t="s">
+        <v>125</v>
+      </c>
+      <c r="K96" t="s">
+        <v>14</v>
+      </c>
+      <c r="L96" t="s">
+        <v>94</v>
+      </c>
+      <c r="M96" t="s">
+        <v>104</v>
+      </c>
+      <c r="N96" t="s">
+        <v>13</v>
+      </c>
+      <c r="O96" t="s">
         <v>99</v>
       </c>
-      <c r="M76" t="s">
-        <v>126</v>
-      </c>
-      <c r="N76" t="s">
-        <v>13</v>
-      </c>
-      <c r="O76" t="s">
-        <v>108</v>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B97" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" t="s">
+        <v>121</v>
+      </c>
+      <c r="F97" t="s">
+        <v>134</v>
+      </c>
+      <c r="G97" t="s">
+        <v>135</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I97" t="s">
+        <v>124</v>
+      </c>
+      <c r="J97" t="s">
+        <v>125</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>94</v>
+      </c>
+      <c r="M97" t="s">
+        <v>104</v>
+      </c>
+      <c r="N97" t="s">
+        <v>13</v>
+      </c>
+      <c r="O97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B98" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" t="s">
+        <v>120</v>
+      </c>
+      <c r="E98" t="s">
+        <v>121</v>
+      </c>
+      <c r="F98" t="s">
+        <v>136</v>
+      </c>
+      <c r="G98" t="s">
+        <v>137</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I98" t="s">
+        <v>124</v>
+      </c>
+      <c r="J98" t="s">
+        <v>125</v>
+      </c>
+      <c r="K98" t="s">
+        <v>14</v>
+      </c>
+      <c r="L98" t="s">
+        <v>94</v>
+      </c>
+      <c r="M98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N98" t="s">
+        <v>13</v>
+      </c>
+      <c r="O98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" t="s">
+        <v>120</v>
+      </c>
+      <c r="E99" t="s">
+        <v>121</v>
+      </c>
+      <c r="F99" t="s">
+        <v>138</v>
+      </c>
+      <c r="G99" t="s">
+        <v>139</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I99" t="s">
+        <v>124</v>
+      </c>
+      <c r="J99" t="s">
+        <v>125</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" t="s">
+        <v>94</v>
+      </c>
+      <c r="M99" t="s">
+        <v>230</v>
+      </c>
+      <c r="N99" t="s">
+        <v>13</v>
+      </c>
+      <c r="O99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B100" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" t="s">
+        <v>120</v>
+      </c>
+      <c r="E100" t="s">
+        <v>121</v>
+      </c>
+      <c r="F100" t="s">
+        <v>140</v>
+      </c>
+      <c r="G100" t="s">
+        <v>141</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I100" t="s">
+        <v>124</v>
+      </c>
+      <c r="J100" t="s">
+        <v>125</v>
+      </c>
+      <c r="K100" t="s">
+        <v>14</v>
+      </c>
+      <c r="L100" t="s">
+        <v>94</v>
+      </c>
+      <c r="M100" t="s">
+        <v>231</v>
+      </c>
+      <c r="N100" t="s">
+        <v>13</v>
+      </c>
+      <c r="O100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B101" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" t="s">
+        <v>142</v>
+      </c>
+      <c r="D101" t="s">
+        <v>143</v>
+      </c>
+      <c r="E101" t="s">
+        <v>144</v>
+      </c>
+      <c r="N101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>45775</v>
+      </c>
+      <c r="F102" t="s">
+        <v>186</v>
+      </c>
+      <c r="G102" t="s">
+        <v>187</v>
+      </c>
+      <c r="H102" t="s">
+        <v>188</v>
+      </c>
+      <c r="I102" t="s">
+        <v>189</v>
+      </c>
+      <c r="J102" t="s">
+        <v>190</v>
+      </c>
+      <c r="K102" t="s">
+        <v>14</v>
+      </c>
+      <c r="L102" t="s">
+        <v>15</v>
+      </c>
+      <c r="M102" t="s">
+        <v>231</v>
+      </c>
+      <c r="N102" t="s">
+        <v>13</v>
+      </c>
+      <c r="O102" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>45775</v>
+      </c>
+      <c r="F103" t="s">
+        <v>191</v>
+      </c>
+      <c r="G103" t="s">
+        <v>192</v>
+      </c>
+      <c r="H103" t="s">
+        <v>193</v>
+      </c>
+      <c r="I103" t="s">
+        <v>189</v>
+      </c>
+      <c r="J103" t="s">
+        <v>190</v>
+      </c>
+      <c r="K103" t="s">
+        <v>14</v>
+      </c>
+      <c r="L103" t="s">
+        <v>15</v>
+      </c>
+      <c r="M103" t="s">
+        <v>232</v>
+      </c>
+      <c r="N103" t="s">
+        <v>13</v>
+      </c>
+      <c r="O103" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>45775</v>
+      </c>
+      <c r="F104" t="s">
+        <v>194</v>
+      </c>
+      <c r="G104" t="s">
+        <v>195</v>
+      </c>
+      <c r="H104" t="s">
+        <v>196</v>
+      </c>
+      <c r="I104" t="s">
+        <v>189</v>
+      </c>
+      <c r="J104" t="s">
+        <v>190</v>
+      </c>
+      <c r="K104" t="s">
+        <v>14</v>
+      </c>
+      <c r="L104" t="s">
+        <v>15</v>
+      </c>
+      <c r="M104" t="s">
+        <v>233</v>
+      </c>
+      <c r="N104" t="s">
+        <v>13</v>
+      </c>
+      <c r="O104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>45775</v>
+      </c>
+      <c r="F105" t="s">
+        <v>186</v>
+      </c>
+      <c r="G105" t="s">
+        <v>187</v>
+      </c>
+      <c r="H105" t="s">
+        <v>188</v>
+      </c>
+      <c r="I105" t="s">
+        <v>189</v>
+      </c>
+      <c r="J105" t="s">
+        <v>190</v>
+      </c>
+      <c r="K105" t="s">
+        <v>14</v>
+      </c>
+      <c r="L105" t="s">
+        <v>15</v>
+      </c>
+      <c r="M105" t="s">
+        <v>231</v>
+      </c>
+      <c r="N105" t="s">
+        <v>13</v>
+      </c>
+      <c r="O105" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>45775</v>
+      </c>
+      <c r="F106" t="s">
+        <v>191</v>
+      </c>
+      <c r="G106" t="s">
+        <v>192</v>
+      </c>
+      <c r="H106" t="s">
+        <v>193</v>
+      </c>
+      <c r="I106" t="s">
+        <v>189</v>
+      </c>
+      <c r="J106" t="s">
+        <v>190</v>
+      </c>
+      <c r="K106" t="s">
+        <v>14</v>
+      </c>
+      <c r="L106" t="s">
+        <v>15</v>
+      </c>
+      <c r="M106" t="s">
+        <v>232</v>
+      </c>
+      <c r="N106" t="s">
+        <v>13</v>
+      </c>
+      <c r="O106" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>45775</v>
+      </c>
+      <c r="F107" t="s">
+        <v>194</v>
+      </c>
+      <c r="G107" t="s">
+        <v>195</v>
+      </c>
+      <c r="H107" t="s">
+        <v>196</v>
+      </c>
+      <c r="I107" t="s">
+        <v>189</v>
+      </c>
+      <c r="J107" t="s">
+        <v>190</v>
+      </c>
+      <c r="K107" t="s">
+        <v>14</v>
+      </c>
+      <c r="L107" t="s">
+        <v>15</v>
+      </c>
+      <c r="M107" t="s">
+        <v>233</v>
+      </c>
+      <c r="N107" t="s">
+        <v>13</v>
+      </c>
+      <c r="O107" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>45775</v>
+      </c>
+      <c r="F108" t="s">
+        <v>186</v>
+      </c>
+      <c r="G108" t="s">
+        <v>187</v>
+      </c>
+      <c r="H108" t="s">
+        <v>188</v>
+      </c>
+      <c r="I108" t="s">
+        <v>189</v>
+      </c>
+      <c r="J108" t="s">
+        <v>190</v>
+      </c>
+      <c r="K108" t="s">
+        <v>14</v>
+      </c>
+      <c r="L108" t="s">
+        <v>15</v>
+      </c>
+      <c r="M108" t="s">
+        <v>231</v>
+      </c>
+      <c r="N108" t="s">
+        <v>13</v>
+      </c>
+      <c r="O108" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>45775</v>
+      </c>
+      <c r="F109" t="s">
+        <v>191</v>
+      </c>
+      <c r="G109" t="s">
+        <v>192</v>
+      </c>
+      <c r="H109" t="s">
+        <v>193</v>
+      </c>
+      <c r="I109" t="s">
+        <v>189</v>
+      </c>
+      <c r="J109" t="s">
+        <v>190</v>
+      </c>
+      <c r="K109" t="s">
+        <v>14</v>
+      </c>
+      <c r="L109" t="s">
+        <v>15</v>
+      </c>
+      <c r="M109" t="s">
+        <v>232</v>
+      </c>
+      <c r="N109" t="s">
+        <v>13</v>
+      </c>
+      <c r="O109" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>45775</v>
+      </c>
+      <c r="F110" t="s">
+        <v>194</v>
+      </c>
+      <c r="G110" t="s">
+        <v>195</v>
+      </c>
+      <c r="H110" t="s">
+        <v>196</v>
+      </c>
+      <c r="I110" t="s">
+        <v>189</v>
+      </c>
+      <c r="J110" t="s">
+        <v>190</v>
+      </c>
+      <c r="K110" t="s">
+        <v>14</v>
+      </c>
+      <c r="L110" t="s">
+        <v>15</v>
+      </c>
+      <c r="M110" t="s">
+        <v>233</v>
+      </c>
+      <c r="N110" t="s">
+        <v>13</v>
+      </c>
+      <c r="O110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>45775</v>
+      </c>
+      <c r="F111" t="s">
+        <v>186</v>
+      </c>
+      <c r="G111" t="s">
+        <v>187</v>
+      </c>
+      <c r="H111" t="s">
+        <v>188</v>
+      </c>
+      <c r="I111" t="s">
+        <v>189</v>
+      </c>
+      <c r="J111" t="s">
+        <v>190</v>
+      </c>
+      <c r="K111" t="s">
+        <v>14</v>
+      </c>
+      <c r="L111" t="s">
+        <v>15</v>
+      </c>
+      <c r="M111" t="s">
+        <v>231</v>
+      </c>
+      <c r="N111" t="s">
+        <v>13</v>
+      </c>
+      <c r="O111" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>45775</v>
+      </c>
+      <c r="F112" t="s">
+        <v>191</v>
+      </c>
+      <c r="G112" t="s">
+        <v>192</v>
+      </c>
+      <c r="H112" t="s">
+        <v>193</v>
+      </c>
+      <c r="I112" t="s">
+        <v>189</v>
+      </c>
+      <c r="J112" t="s">
+        <v>190</v>
+      </c>
+      <c r="K112" t="s">
+        <v>14</v>
+      </c>
+      <c r="L112" t="s">
+        <v>15</v>
+      </c>
+      <c r="M112" t="s">
+        <v>232</v>
+      </c>
+      <c r="N112" t="s">
+        <v>13</v>
+      </c>
+      <c r="O112" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>45775</v>
+      </c>
+      <c r="F113" t="s">
+        <v>194</v>
+      </c>
+      <c r="G113" t="s">
+        <v>195</v>
+      </c>
+      <c r="H113" t="s">
+        <v>196</v>
+      </c>
+      <c r="I113" t="s">
+        <v>189</v>
+      </c>
+      <c r="J113" t="s">
+        <v>190</v>
+      </c>
+      <c r="K113" t="s">
+        <v>14</v>
+      </c>
+      <c r="L113" t="s">
+        <v>15</v>
+      </c>
+      <c r="M113" t="s">
+        <v>233</v>
+      </c>
+      <c r="N113" t="s">
+        <v>13</v>
+      </c>
+      <c r="O113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B114" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>120</v>
+      </c>
+      <c r="E114" t="s">
+        <v>197</v>
+      </c>
+      <c r="F114" t="s">
+        <v>198</v>
+      </c>
+      <c r="G114" t="s">
+        <v>199</v>
+      </c>
+      <c r="H114" t="s">
+        <v>200</v>
+      </c>
+      <c r="I114" t="s">
+        <v>201</v>
+      </c>
+      <c r="J114" t="s">
+        <v>197</v>
+      </c>
+      <c r="K114" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" t="s">
+        <v>15</v>
+      </c>
+      <c r="M114" t="s">
+        <v>234</v>
+      </c>
+      <c r="N114" t="s">
+        <v>13</v>
+      </c>
+      <c r="O114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>120</v>
+      </c>
+      <c r="E115" t="s">
+        <v>197</v>
+      </c>
+      <c r="F115" t="s">
+        <v>202</v>
+      </c>
+      <c r="G115" t="s">
+        <v>203</v>
+      </c>
+      <c r="H115" t="s">
+        <v>204</v>
+      </c>
+      <c r="I115" t="s">
+        <v>201</v>
+      </c>
+      <c r="J115" t="s">
+        <v>197</v>
+      </c>
+      <c r="K115" t="s">
+        <v>14</v>
+      </c>
+      <c r="L115" t="s">
+        <v>15</v>
+      </c>
+      <c r="M115" t="s">
+        <v>235</v>
+      </c>
+      <c r="N115" t="s">
+        <v>13</v>
+      </c>
+      <c r="O115" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" t="s">
+        <v>209</v>
+      </c>
+      <c r="F116" t="s">
+        <v>205</v>
+      </c>
+      <c r="G116" t="s">
+        <v>206</v>
+      </c>
+      <c r="H116" t="s">
+        <v>207</v>
+      </c>
+      <c r="I116" t="s">
+        <v>208</v>
+      </c>
+      <c r="J116" t="s">
+        <v>209</v>
+      </c>
+      <c r="K116" t="s">
+        <v>14</v>
+      </c>
+      <c r="L116" t="s">
+        <v>15</v>
+      </c>
+      <c r="M116" t="s">
+        <v>236</v>
+      </c>
+      <c r="N116" t="s">
+        <v>13</v>
+      </c>
+      <c r="O116" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B117" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" t="s">
+        <v>209</v>
+      </c>
+      <c r="F117" t="s">
+        <v>210</v>
+      </c>
+      <c r="G117" t="s">
+        <v>211</v>
+      </c>
+      <c r="H117" t="s">
+        <v>212</v>
+      </c>
+      <c r="I117" t="s">
+        <v>208</v>
+      </c>
+      <c r="J117" t="s">
+        <v>209</v>
+      </c>
+      <c r="K117" t="s">
+        <v>14</v>
+      </c>
+      <c r="L117" t="s">
+        <v>15</v>
+      </c>
+      <c r="M117" t="s">
+        <v>236</v>
+      </c>
+      <c r="N117" t="s">
+        <v>13</v>
+      </c>
+      <c r="O117" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" t="s">
+        <v>209</v>
+      </c>
+      <c r="F118" t="s">
+        <v>213</v>
+      </c>
+      <c r="G118" t="s">
+        <v>214</v>
+      </c>
+      <c r="H118" t="s">
+        <v>215</v>
+      </c>
+      <c r="I118" t="s">
+        <v>208</v>
+      </c>
+      <c r="J118" t="s">
+        <v>209</v>
+      </c>
+      <c r="K118" t="s">
+        <v>14</v>
+      </c>
+      <c r="L118" t="s">
+        <v>15</v>
+      </c>
+      <c r="M118" t="s">
+        <v>236</v>
+      </c>
+      <c r="N118" t="s">
+        <v>13</v>
+      </c>
+      <c r="O118" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" t="s">
+        <v>209</v>
+      </c>
+      <c r="F119" t="s">
+        <v>216</v>
+      </c>
+      <c r="G119" t="s">
+        <v>217</v>
+      </c>
+      <c r="H119" t="s">
+        <v>218</v>
+      </c>
+      <c r="I119" t="s">
+        <v>208</v>
+      </c>
+      <c r="J119" t="s">
+        <v>209</v>
+      </c>
+      <c r="K119" t="s">
+        <v>14</v>
+      </c>
+      <c r="L119" t="s">
+        <v>15</v>
+      </c>
+      <c r="M119" t="s">
+        <v>226</v>
+      </c>
+      <c r="N119" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B120" t="s">
+        <v>219</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>120</v>
+      </c>
+      <c r="E120" t="s">
+        <v>220</v>
+      </c>
+      <c r="F120" t="s">
+        <v>221</v>
+      </c>
+      <c r="G120" t="s">
+        <v>222</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I120" t="s">
+        <v>223</v>
+      </c>
+      <c r="J120" t="s">
+        <v>224</v>
+      </c>
+      <c r="K120" t="s">
+        <v>14</v>
+      </c>
+      <c r="L120" t="s">
+        <v>15</v>
+      </c>
+      <c r="M120" t="s">
+        <v>237</v>
+      </c>
+      <c r="N120" t="s">
+        <v>13</v>
+      </c>
+      <c r="O120" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O76" xr:uid="{CA9FC473-EE0B-4B84-814A-0FB9608809A4}"/>
+  <autoFilter ref="A1:O120" xr:uid="{CA9FC473-EE0B-4B84-814A-0FB9608809A4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SPOC_List.xlsx
+++ b/SPOC_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC76FCE4-E245-431C-B755-C3EF98393745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF34B478-2FC7-4A0F-9455-2E331814F942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC50E064-D3E1-4722-A212-170004C84C2C}"/>
   </bookViews>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9FC473-EE0B-4B84-814A-0FB9608809A4}">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
